--- a/data/담당자별_판매량_통합.xlsx
+++ b/data/담당자별_판매량_통합.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t>제품명</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>핸드백</t>
-  </si>
-  <si>
-    <t>벨트</t>
   </si>
   <si>
     <t>A</t>
@@ -422,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -456,10 +453,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2">
         <v>198</v>
@@ -479,10 +476,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>273</v>
@@ -502,10 +499,10 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>385</v>
@@ -522,7 +519,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -531,67 +528,67 @@
         <v>14</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c r="E5">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="F5">
-        <v>200</v>
+        <v>155</v>
       </c>
       <c r="G5">
-        <v>250</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="E6">
-        <v>108</v>
+        <v>223</v>
       </c>
       <c r="F6">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="G6">
-        <v>114</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="E7">
-        <v>223</v>
+        <v>340</v>
       </c>
       <c r="F7">
-        <v>213</v>
+        <v>377</v>
       </c>
       <c r="G7">
-        <v>202</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -600,84 +597,61 @@
         <v>15</v>
       </c>
       <c r="D8">
-        <v>350</v>
+        <v>168</v>
       </c>
       <c r="E8">
-        <v>340</v>
+        <v>102</v>
       </c>
       <c r="F8">
-        <v>377</v>
+        <v>149</v>
       </c>
       <c r="G8">
-        <v>392</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>168</v>
+        <v>231</v>
       </c>
       <c r="E9">
-        <v>102</v>
+        <v>279</v>
       </c>
       <c r="F9">
-        <v>149</v>
+        <v>277</v>
       </c>
       <c r="G9">
-        <v>174</v>
+        <v>292</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>231</v>
+        <v>365</v>
       </c>
       <c r="E10">
-        <v>279</v>
+        <v>383</v>
       </c>
       <c r="F10">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="G10">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11">
-        <v>365</v>
-      </c>
-      <c r="E11">
-        <v>383</v>
-      </c>
-      <c r="F11">
-        <v>308</v>
-      </c>
-      <c r="G11">
         <v>323</v>
       </c>
     </row>
